--- a/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper_spring.xlsx
+++ b/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper_spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.1\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74948DE2-006D-4C1D-80AB-4B92729F7CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43015F1E-F3A6-4E2B-A434-190986CA2A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="253">
   <si>
     <t>Mass</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>spj (global)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Function</t>
@@ -847,6 +844,9 @@
   </si>
   <si>
     <t>Animation Video</t>
+  </si>
+  <si>
+    <t>Point</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1301,6 +1301,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1340,15 +1422,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,12 +1431,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,65 +1440,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,7 +1461,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1463,15 +1479,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1487,15 +1494,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,33 +1549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1997,921 +2004,937 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="J2" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
+      <c r="B2" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="J2" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
+      <c r="L3" s="112"/>
       <c r="M3" s="87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N3" s="88"/>
-      <c r="O3" s="101"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="51">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="113"/>
+      <c r="M4" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="81"/>
+      <c r="P4" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="90"/>
+      <c r="L5" s="113"/>
       <c r="M5" s="45" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="102"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="83"/>
+      <c r="B6" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="86"/>
       <c r="D6" s="51" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="113"/>
+      <c r="M6" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="81"/>
+      <c r="P6" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="90"/>
-      <c r="M6" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="O6" s="102"/>
-      <c r="P6" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="51">
         <v>-9806.5</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="90"/>
+      <c r="L7" s="113"/>
       <c r="M7" s="45" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="102"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>89</v>
-      </c>
       <c r="J8" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="90"/>
+      <c r="L8" s="113"/>
       <c r="M8" s="45" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="102"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="83"/>
+      <c r="B9" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="86"/>
       <c r="D9" s="51"/>
       <c r="E9" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="90"/>
+        <v>103</v>
+      </c>
+      <c r="L9" s="113"/>
       <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="102"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J10" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="90"/>
+        <v>112</v>
+      </c>
+      <c r="L10" s="113"/>
       <c r="M10" s="45" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="102"/>
+      <c r="O10" s="81"/>
       <c r="P10" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="90"/>
+      <c r="L11" s="113"/>
       <c r="M11" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="102"/>
+        <v>137</v>
+      </c>
+      <c r="O11" s="81"/>
       <c r="P11" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
+      <c r="B12" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
       <c r="J12" s="56"/>
       <c r="K12" s="57"/>
-      <c r="L12" s="90"/>
+      <c r="L12" s="113"/>
       <c r="M12" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="O12" s="102"/>
+        <v>138</v>
+      </c>
+      <c r="O12" s="81"/>
       <c r="P12" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="81"/>
+      <c r="B13" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="84"/>
       <c r="D13" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+        <v>125</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
       <c r="J13" s="56"/>
       <c r="K13" s="57"/>
-      <c r="L13" s="90"/>
+      <c r="L13" s="113"/>
       <c r="M13" s="45" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="102"/>
+      <c r="O13" s="81"/>
       <c r="P13" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="81"/>
+      <c r="B14" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="84"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
+        <v>125</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
       <c r="J14" s="58"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="90"/>
+      <c r="L14" s="113"/>
       <c r="M14" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" s="102"/>
+        <v>139</v>
+      </c>
+      <c r="O14" s="81"/>
       <c r="P14" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="81"/>
+      <c r="B15" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="84"/>
       <c r="D15" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
+        <v>125</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
       <c r="J15" s="87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="88"/>
-      <c r="L15" s="90"/>
+      <c r="L15" s="113"/>
       <c r="M15" s="45" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="102"/>
+      <c r="O15" s="81"/>
       <c r="P15" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q15" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="81"/>
+      <c r="B16" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="84"/>
       <c r="D16" s="67"/>
       <c r="E16" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
+        <v>125</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="J16" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="90"/>
+        <v>107</v>
+      </c>
+      <c r="L16" s="113"/>
       <c r="M16" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N16" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="O16" s="102"/>
+        <v>140</v>
+      </c>
+      <c r="O16" s="81"/>
       <c r="P16" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="81"/>
+      <c r="B17" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="84"/>
       <c r="D17" s="67"/>
       <c r="E17" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
+        <v>125</v>
+      </c>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
       <c r="J17" s="45" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="113"/>
+      <c r="M17" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="N17" s="88"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="J18" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="90"/>
-      <c r="M17" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="50" t="s">
+      <c r="L18" s="113"/>
+      <c r="M18" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="81"/>
+      <c r="P18" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="Q17" s="61" t="s">
+      <c r="Q18" s="61" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="J18" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="90"/>
-      <c r="M18" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" s="102"/>
-      <c r="P18" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q18" s="61" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="67"/>
       <c r="E19" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+        <v>125</v>
+      </c>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
       <c r="J19" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="90"/>
+      <c r="L19" s="113"/>
       <c r="M19" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="81"/>
+      <c r="P19" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="J20" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="113"/>
+      <c r="M20" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="46" t="s">
+      <c r="N20" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="102"/>
-      <c r="P19" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q19" s="61" t="s">
+      <c r="O20" s="81"/>
+      <c r="P20" s="45" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="92" t="s">
+      <c r="Q20" s="61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="J20" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="90"/>
-      <c r="M20" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="N20" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="102"/>
-      <c r="P20" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="61" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="49"/>
       <c r="E21" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
+        <v>125</v>
+      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
       <c r="J21" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="90"/>
+        <v>103</v>
+      </c>
+      <c r="L21" s="113"/>
       <c r="M21" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="O21" s="102"/>
+        <v>159</v>
+      </c>
+      <c r="O21" s="81"/>
       <c r="P21" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="107"/>
+      <c r="B22" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="91"/>
       <c r="D22" s="67">
         <v>2</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
       <c r="J22" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="91"/>
+      <c r="L22" s="114"/>
       <c r="M22" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N22" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="O22" s="102"/>
+        <v>158</v>
+      </c>
+      <c r="O22" s="81"/>
       <c r="P22" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="67">
         <v>3</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="102"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="81"/>
       <c r="P23" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q24" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="32" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q25" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="Q24" s="62" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="32" t="s">
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="Q25" s="62" t="s">
+      <c r="Q26" s="62" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="32" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="Q26" s="62" t="s">
+      <c r="Q27" s="62" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="32" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q28" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="Q27" s="62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="32" t="s">
+      <c r="Q29" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="Q28" s="62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q29" s="62" t="s">
+      <c r="Q30" s="62" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="32" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="Q30" s="62" t="s">
+      <c r="Q31" s="62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="32" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="Q31" s="62" t="s">
+      <c r="Q32" s="62" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="95"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="32" t="s">
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="Q32" s="62" t="s">
+      <c r="Q33" s="62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="95"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="32" t="s">
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="62" t="s">
+      <c r="Q34" s="62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="95"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="32" t="s">
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q34" s="62" t="s">
+      <c r="Q35" s="62" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="95"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q35" s="62" t="s">
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="32" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="95"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="32" t="s">
+      <c r="Q36" s="62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="Q36" s="62" t="s">
+      <c r="Q37" s="62" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="32" t="s">
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="77"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="Q37" s="62" t="s">
+      <c r="Q38" s="62" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="98"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q38" s="62" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
       <c r="P39" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q39" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="J23:N38"/>
     <mergeCell ref="O3:O38"/>
@@ -2928,20 +2951,6 @@
     <mergeCell ref="B22:C29"/>
     <mergeCell ref="E22:E29"/>
     <mergeCell ref="F22:H29"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2953,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC35" sqref="AC35"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,125 +2982,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="81" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81" t="s">
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="113" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -3138,52 +3147,52 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="114"/>
-      <c r="S3" s="112"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="116"/>
       <c r="T3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="W3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="Y3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>68</v>
-      </c>
       <c r="Z3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AB3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AC3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AD3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AE3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AF3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="28" t="s">
+      <c r="AG3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="28" t="s">
+      <c r="AH3" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="AH3" s="28" t="s">
-        <v>62</v>
       </c>
       <c r="AI3" s="29" t="s">
         <v>2</v>
@@ -3313,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="64">
         <v>0</v>
@@ -3426,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="64">
         <v>0</v>
@@ -3541,7 +3550,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="16">
         <v>-838.57</v>
@@ -3657,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="17">
         <v>838.57280000000003</v>
@@ -3718,9 +3727,8 @@
         <f>2.9054586*10^5</f>
         <v>290545.86</v>
       </c>
-      <c r="V8" s="63">
-        <f>1.1975358*10^4</f>
-        <v>11975.358</v>
+      <c r="V8" s="70">
+        <v>11975.35</v>
       </c>
       <c r="W8" s="63">
         <v>0</v>
@@ -3839,6 +3847,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
+      <c r="T12" s="69"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -3854,6 +3863,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
+      <c r="U13" s="69"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -6824,12 +6834,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6843,6 +6847,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6853,8 +6863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6874,16 +6884,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6914,11 +6924,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6974,19 +6984,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7011,16 +7021,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="119" t="s">
+      <c r="G6" s="126"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7056,22 +7066,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7096,21 +7106,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118" t="s">
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118" t="s">
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7164,19 +7174,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7201,16 +7211,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118" t="s">
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7227,7 +7237,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -7269,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="13">
         <v>3</v>
@@ -7304,7 +7314,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="47">
         <v>3</v>
@@ -7352,19 +7362,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7389,16 +7399,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="117" t="s">
+      <c r="F19" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118" t="s">
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -7435,19 +7445,19 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7472,16 +7482,16 @@
       <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="117" t="s">
+      <c r="F23" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="118" t="s">
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -7517,22 +7527,22 @@
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
+      <c r="A26" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
@@ -7550,44 +7560,44 @@
       <c r="E27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="117" t="s">
+      <c r="F27" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="118" t="s">
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
+      <c r="A30" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
@@ -7605,26 +7615,26 @@
       <c r="E31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="119" t="s">
+      <c r="F31" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="120"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="119" t="s">
+      <c r="G31" s="126"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="120"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="118" t="s">
+      <c r="J31" s="126"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -7645,22 +7655,29 @@
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
     </row>
-    <row r="33" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+    </row>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
@@ -7688,10 +7705,17 @@
         <v>18</v>
       </c>
       <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
     </row>
     <row r="36" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
@@ -7701,10 +7725,17 @@
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -7714,12 +7745,6 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="9"/>
-      <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -7728,20 +7753,15 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
@@ -7765,10 +7785,17 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -7786,10 +7813,6 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -7799,10 +7822,6 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="122" t="s">
@@ -7814,96 +7833,210 @@
       <c r="E42" s="123"/>
       <c r="F42" s="123"/>
       <c r="G42" s="124"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="118" t="s">
+      <c r="E43" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
     </row>
     <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="18">
+        <v>1</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
     </row>
     <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="18">
+        <v>2</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <v>500</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
     </row>
     <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="18">
+        <v>3</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
       <c r="H46"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="18">
+        <v>4</v>
+      </c>
+      <c r="E47" s="18">
+        <v>-902</v>
+      </c>
+      <c r="F47" s="18">
+        <v>478</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="18">
+        <v>3</v>
+      </c>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="18">
+        <v>5</v>
+      </c>
+      <c r="E49" s="18">
+        <v>902</v>
+      </c>
+      <c r="F49" s="18">
+        <v>478</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="13"/>
     </row>
     <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="F23:H23"/>
@@ -7920,34 +8053,22 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B1039 B44:B47" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B1036" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:B49" xr:uid="{BC2F65C6-D0C1-488D-AFE3-0640C585FC3A}">
+      <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7970,18 +8091,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="A1" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -7997,18 +8118,18 @@
         <v>16</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="G2" s="129"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8028,7 +8149,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8051,7 +8172,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8074,58 +8195,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
+      <c r="A1" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
-      <c r="V2" s="140" t="s">
-        <v>124</v>
-      </c>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="145" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
+      <c r="V2" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -8143,48 +8264,48 @@
       <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="145" t="s">
+      <c r="G3" s="135"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="146"/>
-      <c r="K3" s="147"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="P3" s="34" t="s">
-        <v>119</v>
-      </c>
       <c r="Q3" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="144" t="s">
-        <v>123</v>
-      </c>
-      <c r="S3" s="144"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="140"/>
+        <v>120</v>
+      </c>
+      <c r="R3" s="137" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" s="137"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="47">
@@ -8213,24 +8334,24 @@
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="18">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="N4" s="41"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="V4" s="140"/>
-      <c r="W4" s="140"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="140"/>
-      <c r="Z4" s="140"/>
-      <c r="AA4" s="140"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47">
@@ -8259,7 +8380,7 @@
       </c>
       <c r="L5" s="47"/>
       <c r="M5" s="18">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
@@ -8267,76 +8388,76 @@
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="140"/>
-      <c r="Y6" s="140"/>
-      <c r="Z6" s="140"/>
-      <c r="AA6" s="140"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133"/>
     </row>
     <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="140"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
+      <c r="A7" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="133"/>
     </row>
     <row r="8" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="140"/>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
     </row>
     <row r="9" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
@@ -8354,45 +8475,47 @@
       <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="145" t="s">
+      <c r="G9" s="135"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
       <c r="L9" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="O9" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="P9" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="141" t="s">
-        <v>122</v>
-      </c>
-      <c r="R9" s="143"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="140"/>
-      <c r="AA9" s="140"/>
+      <c r="R9" s="136"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="47" t="s">
+        <v>73</v>
+      </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47">
         <v>2</v>
@@ -8419,19 +8542,21 @@
         <v>0</v>
       </c>
       <c r="L10" s="47">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="47" t="s">
+        <v>73</v>
+      </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47">
         <v>2</v>
@@ -8458,27 +8583,27 @@
         <v>0</v>
       </c>
       <c r="L11" s="47">
-        <v>400</v>
-      </c>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
+        <v>40</v>
+      </c>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q12" s="47"/>
-      <c r="V12" s="140"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="140"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="123"/>
       <c r="C13" s="123"/>
@@ -8499,12 +8624,12 @@
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
-      <c r="V13" s="140"/>
-      <c r="W13" s="140"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="140"/>
-      <c r="Z13" s="140"/>
-      <c r="AA13" s="140"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
     </row>
     <row r="14" spans="1:27" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
@@ -8522,26 +8647,26 @@
       <c r="E14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="130" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
+      <c r="F14" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="138"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
       <c r="P14" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="47"/>
     </row>
@@ -8590,20 +8715,20 @@
       <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
+      <c r="A17" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -8621,18 +8746,18 @@
       <c r="E18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="103" t="s">
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="115"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="33" t="s">
         <v>161</v>
-      </c>
-      <c r="J18" s="115"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="33" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -8682,6 +8807,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="V2:AA13"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="R3:S3"/>
@@ -8693,15 +8827,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="A7:R7"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8724,104 +8849,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="F1" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="86"/>
-      <c r="I1" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="86"/>
+      <c r="A1" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="F1" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="111"/>
+      <c r="I1" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
+        <v>134</v>
+      </c>
+      <c r="I2" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="F3" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
+        <v>166</v>
+      </c>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
       <c r="F4" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
+        <v>167</v>
+      </c>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="F5" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="F6" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
+        <v>171</v>
+      </c>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
@@ -8829,10 +8954,10 @@
       <c r="C7" s="60"/>
       <c r="E7" s="39"/>
       <c r="F7" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -8841,10 +8966,10 @@
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8853,10 +8978,10 @@
       <c r="C9" s="60"/>
       <c r="E9" s="39"/>
       <c r="F9" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="39"/>
     </row>
@@ -8865,10 +8990,10 @@
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="F10" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8876,10 +9001,10 @@
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="F11" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8887,10 +9012,10 @@
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
       <c r="F12" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8898,10 +9023,10 @@
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
       <c r="F13" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -8909,10 +9034,10 @@
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="F14" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -8920,10 +9045,10 @@
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
       <c r="F15" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8931,10 +9056,10 @@
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="F16" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -8942,10 +9067,10 @@
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="F17" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -8953,10 +9078,10 @@
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="F18" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -8964,10 +9089,10 @@
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="F19" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -8975,13 +9100,13 @@
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="F20" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N20" s="47"/>
       <c r="O20" s="47">
@@ -9020,14 +9145,14 @@
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="F21" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L21" s="47"/>
       <c r="M21" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N21" s="47"/>
       <c r="O21" s="47">
@@ -9066,10 +9191,10 @@
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="F22" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -9077,10 +9202,10 @@
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="F23" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -9088,13 +9213,13 @@
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="F24" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M24" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="47">
@@ -9130,13 +9255,13 @@
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="F25" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="47">
@@ -9172,10 +9297,10 @@
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="F26" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -9183,10 +9308,10 @@
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="F27" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -9194,10 +9319,10 @@
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
       <c r="F28" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -9205,10 +9330,10 @@
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="F29" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -9216,10 +9341,10 @@
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
       <c r="F30" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -9227,10 +9352,10 @@
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
       <c r="F31" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -9238,10 +9363,10 @@
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
       <c r="F32" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -9249,10 +9374,10 @@
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
       <c r="F33" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9260,10 +9385,10 @@
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
       <c r="F34" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -9271,10 +9396,10 @@
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
       <c r="F35" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G35" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -9282,10 +9407,10 @@
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
       <c r="F36" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -9293,10 +9418,10 @@
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
       <c r="F37" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G37" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -9304,10 +9429,10 @@
       <c r="B38" s="60"/>
       <c r="C38" s="60"/>
       <c r="F38" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G38" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">

--- a/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper_spring.xlsx
+++ b/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper_spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.1\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43015F1E-F3A6-4E2B-A434-190986CA2A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427D7388-8B9D-456F-BFB7-0B41C7DC58B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1308,6 +1308,42 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1347,21 +1383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1419,46 +1440,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,15 +1479,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1494,6 +1494,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1519,36 +1549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1984,7 +1984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2004,44 +2004,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="J2" s="108" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="J2" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="51">
         <v>10</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="87" t="s">
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="80"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="92"/>
       <c r="P3" s="45" t="s">
         <v>163</v>
       </c>
@@ -2050,12 +2050,12 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="51">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>22</v>
@@ -2066,14 +2066,14 @@
       <c r="K4" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="113"/>
+      <c r="L4" s="81"/>
       <c r="M4" s="44" t="s">
         <v>133</v>
       </c>
       <c r="N4" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="81"/>
+      <c r="O4" s="93"/>
       <c r="P4" s="45" t="s">
         <v>164</v>
       </c>
@@ -2082,10 +2082,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="51" t="s">
         <v>84</v>
       </c>
@@ -2098,14 +2098,14 @@
       <c r="K5" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="113"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="45" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="81"/>
+      <c r="O5" s="93"/>
       <c r="P5" s="45" t="s">
         <v>165</v>
       </c>
@@ -2114,10 +2114,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="51" t="s">
         <v>3</v>
       </c>
@@ -2130,14 +2130,14 @@
       <c r="K6" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L6" s="113"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="45" t="s">
         <v>135</v>
       </c>
       <c r="N6" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="O6" s="81"/>
+      <c r="O6" s="93"/>
       <c r="P6" s="45" t="s">
         <v>169</v>
       </c>
@@ -2146,10 +2146,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="86"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="51">
         <v>-9806.5</v>
       </c>
@@ -2162,14 +2162,14 @@
       <c r="K7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="113"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="45" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="81"/>
+      <c r="O7" s="93"/>
       <c r="P7" s="45" t="s">
         <v>168</v>
       </c>
@@ -2178,10 +2178,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="51" t="s">
         <v>131</v>
       </c>
@@ -2194,14 +2194,14 @@
       <c r="K8" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="113"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="45" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="81"/>
+      <c r="O8" s="93"/>
       <c r="P8" s="45" t="s">
         <v>172</v>
       </c>
@@ -2210,10 +2210,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="51"/>
       <c r="E9" s="52" t="s">
         <v>125</v>
@@ -2224,14 +2224,14 @@
       <c r="K9" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="113"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="81"/>
+      <c r="O9" s="93"/>
       <c r="P9" s="45" t="s">
         <v>173</v>
       </c>
@@ -2246,14 +2246,14 @@
       <c r="K10" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="113"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="45" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="81"/>
+      <c r="O10" s="93"/>
       <c r="P10" s="50" t="s">
         <v>174</v>
       </c>
@@ -2264,14 +2264,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="113"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="45" t="s">
         <v>137</v>
       </c>
       <c r="N11" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="O11" s="81"/>
+      <c r="O11" s="93"/>
       <c r="P11" s="50" t="s">
         <v>175</v>
       </c>
@@ -2280,25 +2280,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
       <c r="J12" s="56"/>
       <c r="K12" s="57"/>
-      <c r="L12" s="113"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="45" t="s">
         <v>138</v>
       </c>
       <c r="N12" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="O12" s="81"/>
+      <c r="O12" s="93"/>
       <c r="P12" s="45" t="s">
         <v>180</v>
       </c>
@@ -2307,29 +2307,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="67" t="s">
         <v>241</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
       <c r="J13" s="56"/>
       <c r="K13" s="57"/>
-      <c r="L13" s="113"/>
+      <c r="L13" s="81"/>
       <c r="M13" s="45" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="81"/>
+      <c r="O13" s="93"/>
       <c r="P13" s="50" t="s">
         <v>181</v>
       </c>
@@ -2338,27 +2338,27 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
       <c r="J14" s="58"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="113"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="45" t="s">
         <v>139</v>
       </c>
       <c r="N14" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="O14" s="81"/>
+      <c r="O14" s="93"/>
       <c r="P14" s="50" t="s">
         <v>182</v>
       </c>
@@ -2367,31 +2367,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="84"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="67" t="s">
         <v>241</v>
       </c>
       <c r="E15" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="J15" s="87" t="s">
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="J15" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="113"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="81"/>
       <c r="M15" s="45" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="81"/>
+      <c r="O15" s="93"/>
       <c r="P15" s="50" t="s">
         <v>183</v>
       </c>
@@ -2400,31 +2400,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="67"/>
       <c r="E16" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
       <c r="J16" s="45" t="s">
         <v>96</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="113"/>
+      <c r="L16" s="81"/>
       <c r="M16" s="45" t="s">
         <v>140</v>
       </c>
       <c r="N16" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="O16" s="81"/>
+      <c r="O16" s="93"/>
       <c r="P16" s="45" t="s">
         <v>188</v>
       </c>
@@ -2433,29 +2433,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="67"/>
       <c r="E17" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
       <c r="J17" s="45" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="113"/>
-      <c r="M17" s="87" t="s">
+      <c r="L17" s="81"/>
+      <c r="M17" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="81"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="93"/>
       <c r="P17" s="50" t="s">
         <v>189</v>
       </c>
@@ -2464,33 +2464,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="67" t="s">
         <v>241</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
       <c r="J18" s="45" t="s">
         <v>97</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="113"/>
+      <c r="L18" s="81"/>
       <c r="M18" s="53" t="s">
         <v>162</v>
       </c>
       <c r="N18" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="O18" s="81"/>
+      <c r="O18" s="93"/>
       <c r="P18" s="50" t="s">
         <v>190</v>
       </c>
@@ -2499,31 +2499,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="67"/>
       <c r="E19" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
       <c r="J19" s="45" t="s">
         <v>98</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="113"/>
+      <c r="L19" s="81"/>
       <c r="M19" s="46" t="s">
         <v>153</v>
       </c>
       <c r="N19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="81"/>
+      <c r="O19" s="93"/>
       <c r="P19" s="50" t="s">
         <v>191</v>
       </c>
@@ -2532,33 +2532,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="48" t="s">
         <v>241</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
       <c r="J20" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="113"/>
+      <c r="L20" s="81"/>
       <c r="M20" s="46" t="s">
         <v>154</v>
       </c>
       <c r="N20" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="81"/>
+      <c r="O20" s="93"/>
       <c r="P20" s="45" t="s">
         <v>196</v>
       </c>
@@ -2567,31 +2567,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="49"/>
       <c r="E21" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
       <c r="J21" s="45" t="s">
         <v>99</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="113"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="46" t="s">
         <v>155</v>
       </c>
       <c r="N21" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="O21" s="81"/>
+      <c r="O21" s="93"/>
       <c r="P21" s="50" t="s">
         <v>197</v>
       </c>
@@ -2600,35 +2600,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="67">
         <v>2</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="99" t="s">
+      <c r="F22" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="101"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
       <c r="J22" s="32" t="s">
         <v>110</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="114"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="46" t="s">
         <v>156</v>
       </c>
       <c r="N22" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="O22" s="81"/>
+      <c r="O22" s="93"/>
       <c r="P22" s="50" t="s">
         <v>198</v>
       </c>
@@ -2637,21 +2637,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="67">
         <v>3</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="81"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="93"/>
       <c r="P23" s="50" t="s">
         <v>199</v>
       </c>
@@ -2660,19 +2660,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="67"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="81"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="93"/>
       <c r="P24" s="32" t="s">
         <v>205</v>
       </c>
@@ -2681,19 +2681,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="67"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="81"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="93"/>
       <c r="P25" s="32" t="s">
         <v>209</v>
       </c>
@@ -2702,19 +2702,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="67"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="81"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="93"/>
       <c r="P26" s="32" t="s">
         <v>210</v>
       </c>
@@ -2723,19 +2723,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="67"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="81"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="111"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="93"/>
       <c r="P27" s="32" t="s">
         <v>211</v>
       </c>
@@ -2744,19 +2744,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="67"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="81"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="93"/>
       <c r="P28" s="32" t="s">
         <v>213</v>
       </c>
@@ -2765,19 +2765,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="67"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="107"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="81"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="114"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="93"/>
       <c r="P29" s="32" t="s">
         <v>212</v>
       </c>
@@ -2786,12 +2786,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="81"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="93"/>
       <c r="P30" s="32" t="s">
         <v>214</v>
       </c>
@@ -2800,12 +2800,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="81"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="93"/>
       <c r="P31" s="32" t="s">
         <v>215</v>
       </c>
@@ -2814,12 +2814,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="81"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="93"/>
       <c r="P32" s="32" t="s">
         <v>216</v>
       </c>
@@ -2828,12 +2828,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="81"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="93"/>
       <c r="P33" s="32" t="s">
         <v>217</v>
       </c>
@@ -2842,12 +2842,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="81"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="93"/>
       <c r="P34" s="32" t="s">
         <v>218</v>
       </c>
@@ -2856,12 +2856,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="81"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="93"/>
       <c r="P35" s="32" t="s">
         <v>219</v>
       </c>
@@ -2870,12 +2870,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="81"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="93"/>
       <c r="P36" s="32" t="s">
         <v>228</v>
       </c>
@@ -2884,12 +2884,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="74"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="81"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="93"/>
       <c r="P37" s="32" t="s">
         <v>229</v>
       </c>
@@ -2898,12 +2898,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="77"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="81"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="93"/>
       <c r="P38" s="32" t="s">
         <v>230</v>
       </c>
@@ -2921,6 +2921,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:H29"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2936,21 +2951,6 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2962,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,118 +2982,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="84" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84" t="s">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="117" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117" t="s">
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117" t="s">
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="84" t="s">
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="118" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="117" t="s">
+      <c r="S2" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="84" t="s">
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="82" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="84" t="s">
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84" t="s">
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84" t="s">
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3147,8 +3147,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="118"/>
-      <c r="S3" s="116"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="115"/>
       <c r="T3" s="16" t="s">
         <v>62</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="30">
-        <v>0.52359900000000004</v>
+        <v>-0.52359900000000004</v>
       </c>
       <c r="S7" s="16">
         <v>6.2439999999999998</v>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="63">
-        <v>-0.52359900000000004</v>
+        <v>0.52359900000000004</v>
       </c>
       <c r="S8" s="63">
         <v>6.2439999999999998</v>
@@ -6834,6 +6834,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6847,12 +6853,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6884,16 +6884,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6924,11 +6924,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6984,19 +6984,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7021,16 +7021,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="125" t="s">
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="124"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7066,22 +7066,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7106,21 +7106,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="119" t="s">
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119" t="s">
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7174,19 +7174,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7211,16 +7211,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="119" t="s">
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7362,19 +7362,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7399,16 +7399,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="121" t="s">
+      <c r="F19" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="119" t="s">
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -7445,19 +7445,19 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7482,16 +7482,16 @@
       <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="121" t="s">
+      <c r="F23" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="119" t="s">
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -7527,22 +7527,22 @@
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
@@ -7560,44 +7560,44 @@
       <c r="E27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="119" t="s">
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119" t="s">
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
@@ -7615,26 +7615,26 @@
       <c r="E31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="125" t="s">
+      <c r="F31" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="126"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="125" t="s">
+      <c r="G31" s="123"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="119" t="s">
+      <c r="J31" s="123"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119" t="s">
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -7669,14 +7669,14 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
       <c r="G34" s="11"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
@@ -7753,12 +7753,12 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="120" t="s">
+      <c r="A38" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="120"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -7824,15 +7824,15 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="122" t="s">
+      <c r="A42" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="124"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="127"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="68" t="s">
@@ -7847,11 +7847,11 @@
       <c r="D43" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="119" t="s">
+      <c r="E43" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
     </row>
     <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
@@ -8022,21 +8022,6 @@
     <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="F23:H23"/>
@@ -8053,6 +8038,21 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8171,7 +8171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -8195,58 +8195,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="145" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
-      <c r="V2" s="133" t="s">
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="138"/>
+      <c r="V2" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -8264,16 +8264,16 @@
       <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="135"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="138" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="139"/>
-      <c r="K3" s="140"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="65" t="s">
         <v>249</v>
       </c>
@@ -8292,16 +8292,16 @@
       <c r="Q3" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R3" s="137" t="s">
+      <c r="R3" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="137"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
+      <c r="S3" s="147"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
@@ -8332,21 +8332,23 @@
       <c r="K4" s="47">
         <v>0</v>
       </c>
-      <c r="L4" s="47"/>
+      <c r="L4" s="47">
+        <v>500</v>
+      </c>
       <c r="M4" s="18">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="N4" s="41"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
@@ -8378,9 +8380,11 @@
       <c r="K5" s="47">
         <v>0</v>
       </c>
-      <c r="L5" s="47"/>
+      <c r="L5" s="47">
+        <v>500</v>
+      </c>
       <c r="M5" s="18">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
@@ -8388,76 +8392,76 @@
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="133"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
     </row>
     <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="V7" s="133"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="133"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
     </row>
     <row r="8" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="141" t="s">
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="133"/>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="133"/>
-      <c r="AA8" s="133"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
     </row>
     <row r="9" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
@@ -8475,16 +8479,16 @@
       <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="138" t="s">
+      <c r="G9" s="145"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="40" t="s">
         <v>114</v>
       </c>
@@ -8500,16 +8504,16 @@
       <c r="P9" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="134" t="s">
+      <c r="Q9" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="136"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="133"/>
+      <c r="R9" s="146"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
@@ -8545,12 +8549,12 @@
         <v>40</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="133"/>
-      <c r="AA10" s="133"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="143"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
@@ -8585,51 +8589,51 @@
       <c r="L11" s="47">
         <v>40</v>
       </c>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="133"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="143"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q12" s="47"/>
-      <c r="V12" s="133"/>
-      <c r="W12" s="133"/>
-      <c r="X12" s="133"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="133"/>
-      <c r="AA12" s="133"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="143"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
       <c r="Q13" s="47"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="133"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="133"/>
-      <c r="AA13" s="133"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="143"/>
     </row>
     <row r="14" spans="1:27" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
@@ -8647,24 +8651,24 @@
       <c r="E14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="144" t="s">
+      <c r="F14" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="149" t="s">
+      <c r="J14" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="150"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="148" t="s">
+      <c r="K14" s="141"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
       <c r="P14" s="36" t="s">
         <v>79</v>
       </c>
@@ -8715,20 +8719,20 @@
       <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -8746,16 +8750,16 @@
       <c r="E18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="82" t="s">
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="J18" s="115"/>
-      <c r="K18" s="83"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="95"/>
       <c r="L18" s="33" t="s">
         <v>161</v>
       </c>
@@ -8807,15 +8811,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="V2:AA13"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="R3:S3"/>
@@ -8827,6 +8822,15 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="A7:R7"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8849,21 +8853,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="F1" s="109" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="F1" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="I1" s="109" t="s">
+      <c r="G1" s="77"/>
+      <c r="I1" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="111"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
@@ -8881,12 +8885,12 @@
       <c r="G2" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="133" t="s">
+      <c r="I2" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
@@ -8898,10 +8902,10 @@
       <c r="G3" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
@@ -8913,10 +8917,10 @@
       <c r="G4" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
@@ -8928,10 +8932,10 @@
       <c r="G5" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
@@ -8943,10 +8947,10 @@
       <c r="G6" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>

--- a/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper_spring.xlsx
+++ b/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper_spring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.1\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427D7388-8B9D-456F-BFB7-0B41C7DC58B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6A121F-A0D0-4689-B272-55F124F39230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="253">
   <si>
     <t>Mass</t>
   </si>
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,9 +2371,7 @@
         <v>146</v>
       </c>
       <c r="C15" s="72"/>
-      <c r="D15" s="67" t="s">
-        <v>241</v>
-      </c>
+      <c r="D15" s="67"/>
       <c r="E15" s="67" t="s">
         <v>125</v>
       </c>
@@ -2404,7 +2402,9 @@
         <v>148</v>
       </c>
       <c r="C16" s="72"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="67" t="s">
+        <v>241</v>
+      </c>
       <c r="E16" s="48" t="s">
         <v>125</v>
       </c>
@@ -2437,7 +2437,9 @@
         <v>147</v>
       </c>
       <c r="C17" s="72"/>
-      <c r="D17" s="67"/>
+      <c r="D17" s="67" t="s">
+        <v>241</v>
+      </c>
       <c r="E17" s="48" t="s">
         <v>125</v>
       </c>
@@ -2962,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8171,8 +8173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8332,9 +8334,7 @@
       <c r="K4" s="47">
         <v>0</v>
       </c>
-      <c r="L4" s="47">
-        <v>500</v>
-      </c>
+      <c r="L4" s="47"/>
       <c r="M4" s="18">
         <v>800</v>
       </c>
@@ -8380,9 +8380,7 @@
       <c r="K5" s="47">
         <v>0</v>
       </c>
-      <c r="L5" s="47">
-        <v>500</v>
-      </c>
+      <c r="L5" s="47"/>
       <c r="M5" s="18">
         <v>800</v>
       </c>
